--- a/GNFA/Entrega/Matriculados/Mat_Facultad.xlsx
+++ b/GNFA/Entrega/Matriculados/Mat_Facultad.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>2023-1</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2023-2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -398,6 +403,9 @@
       <c r="D2">
         <v>40</v>
       </c>
+      <c r="E2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -418,6 +426,9 @@
       <c r="D3">
         <v>133</v>
       </c>
+      <c r="E3">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -438,6 +449,9 @@
       <c r="D4">
         <v>474</v>
       </c>
+      <c r="E4">
+        <v>510</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -458,6 +472,9 @@
       <c r="D5">
         <v>854</v>
       </c>
+      <c r="E5">
+        <v>846</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -478,6 +495,9 @@
       <c r="D6">
         <v>213</v>
       </c>
+      <c r="E6">
+        <v>185</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -498,6 +518,9 @@
       <c r="D7">
         <v>400</v>
       </c>
+      <c r="E7">
+        <v>381</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -518,6 +541,9 @@
       <c r="D8">
         <v>555</v>
       </c>
+      <c r="E8">
+        <v>596</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -538,6 +564,9 @@
       <c r="D9">
         <v>744</v>
       </c>
+      <c r="E9">
+        <v>686</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -558,6 +587,9 @@
       <c r="D10">
         <v>126</v>
       </c>
+      <c r="E10">
+        <v>121</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -578,6 +610,9 @@
       <c r="D11">
         <v>727</v>
       </c>
+      <c r="E11">
+        <v>750</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -598,6 +633,9 @@
       <c r="D12">
         <v>925</v>
       </c>
+      <c r="E12">
+        <v>856</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -618,6 +656,9 @@
       <c r="D13">
         <v>39</v>
       </c>
+      <c r="E13">
+        <v>44</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -638,6 +679,9 @@
       <c r="D14">
         <v>99</v>
       </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -658,6 +702,9 @@
       <c r="D15">
         <v>2640</v>
       </c>
+      <c r="E15">
+        <v>2654</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -678,6 +725,9 @@
       <c r="D16">
         <v>3760</v>
       </c>
+      <c r="E16">
+        <v>3630</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -698,6 +748,9 @@
       <c r="D17">
         <v>856</v>
       </c>
+      <c r="E17">
+        <v>813</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -718,6 +771,9 @@
       <c r="D18">
         <v>2998</v>
       </c>
+      <c r="E18">
+        <v>2915</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -738,6 +794,9 @@
       <c r="D19">
         <v>4369</v>
       </c>
+      <c r="E19">
+        <v>4175</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -758,6 +817,9 @@
       <c r="D20">
         <v>1599</v>
       </c>
+      <c r="E20">
+        <v>1572</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -778,6 +840,9 @@
       <c r="D21">
         <v>842</v>
       </c>
+      <c r="E21">
+        <v>829</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -798,6 +863,9 @@
       <c r="D22">
         <v>7197</v>
       </c>
+      <c r="E22">
+        <v>7071</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -818,6 +886,9 @@
       <c r="D23">
         <v>2669</v>
       </c>
+      <c r="E23">
+        <v>2584</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -838,6 +909,9 @@
       <c r="D24">
         <v>1107</v>
       </c>
+      <c r="E24">
+        <v>1095</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -858,6 +932,9 @@
       <c r="D25">
         <v>651</v>
       </c>
+      <c r="E25">
+        <v>667</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -878,6 +955,9 @@
       <c r="D26">
         <v>23</v>
       </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -898,6 +978,9 @@
       <c r="D27">
         <v>48</v>
       </c>
+      <c r="E27">
+        <v>47</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -918,6 +1001,9 @@
       <c r="D28">
         <v>1215</v>
       </c>
+      <c r="E28">
+        <v>1256</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -938,6 +1024,9 @@
       <c r="D29">
         <v>149</v>
       </c>
+      <c r="E29">
+        <v>170</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -958,6 +1047,9 @@
       <c r="D30">
         <v>129</v>
       </c>
+      <c r="E30">
+        <v>106</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -978,6 +1070,9 @@
       <c r="D31">
         <v>338</v>
       </c>
+      <c r="E31">
+        <v>333</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -998,6 +1093,9 @@
       <c r="D32">
         <v>1442</v>
       </c>
+      <c r="E32">
+        <v>1411</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1018,6 +1116,9 @@
       <c r="D33">
         <v>523</v>
       </c>
+      <c r="E33">
+        <v>525</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1038,6 +1139,9 @@
       <c r="D34">
         <v>3049</v>
       </c>
+      <c r="E34">
+        <v>2947</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1058,6 +1162,9 @@
       <c r="D35">
         <v>166</v>
       </c>
+      <c r="E35">
+        <v>165</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1078,6 +1185,9 @@
       <c r="D36">
         <v>222</v>
       </c>
+      <c r="E36">
+        <v>204</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1098,6 +1208,9 @@
       <c r="D37">
         <v>122</v>
       </c>
+      <c r="E37">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1118,6 +1231,9 @@
       <c r="D38">
         <v>75</v>
       </c>
+      <c r="E38">
+        <v>65</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1138,6 +1254,9 @@
       <c r="D39">
         <v>563</v>
       </c>
+      <c r="E39">
+        <v>631</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1158,6 +1277,9 @@
       <c r="D40">
         <v>1128</v>
       </c>
+      <c r="E40">
+        <v>1133</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1178,6 +1300,9 @@
       <c r="D41">
         <v>1713</v>
       </c>
+      <c r="E41">
+        <v>1611</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1198,6 +1323,9 @@
       <c r="D42">
         <v>1535</v>
       </c>
+      <c r="E42">
+        <v>1413</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1218,6 +1346,9 @@
       <c r="D43">
         <v>1077</v>
       </c>
+      <c r="E43">
+        <v>999</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1238,6 +1369,9 @@
       <c r="D44">
         <v>6294</v>
       </c>
+      <c r="E44">
+        <v>6036</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1258,6 +1392,9 @@
       <c r="D45">
         <v>241</v>
       </c>
+      <c r="E45">
+        <v>225</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1278,6 +1415,9 @@
       <c r="D46">
         <v>117</v>
       </c>
+      <c r="E46">
+        <v>135</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1298,6 +1438,9 @@
       <c r="D47">
         <v>90</v>
       </c>
+      <c r="E47">
+        <v>87</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1318,6 +1461,9 @@
       <c r="D48">
         <v>960</v>
       </c>
+      <c r="E48">
+        <v>938</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1338,6 +1484,9 @@
       <c r="D49">
         <v>1616</v>
       </c>
+      <c r="E49">
+        <v>1633</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1357,6 +1506,9 @@
       </c>
       <c r="D50">
         <v>206</v>
+      </c>
+      <c r="E50">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
